--- a/Klausuren/Klausurenübersicht.xlsx
+++ b/Klausuren/Klausurenübersicht.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uadytz5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AZ_DATEN\GitHub\Algorithmen und Komplexitaet Zusammenfassung\Klausuren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB51CB8C-E291-44CC-92AE-6A9492AE68CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77D1B7-7C88-409F-8CC3-732CC2109490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{052ADA9E-55BB-4260-9BC9-FCF25CBB1407}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Algorithmus</t>
   </si>
@@ -146,10 +146,25 @@
     <t>Code lesen und Komplexität bestimmen (Aufgabe 3)</t>
   </si>
   <si>
-    <t>Sortieralgorithmen (Einfach) (Aufgabe 1 und 4)</t>
-  </si>
-  <si>
     <t>2015 b) 2016 b)</t>
+  </si>
+  <si>
+    <t>Sortieralgorithmen (Aufgabe 1 und 4)</t>
+  </si>
+  <si>
+    <t>Bäume</t>
+  </si>
+  <si>
+    <t>Graphen</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>binärer Suchbaum</t>
+  </si>
+  <si>
+    <t>AVL-Baum</t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,12 +283,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -588,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F5902D-5E3A-4809-9BD2-D95E49376C14}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
@@ -605,18 +622,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -632,25 +650,25 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2015</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2015</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -660,16 +678,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
@@ -677,16 +695,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -694,16 +712,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
@@ -711,16 +729,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
@@ -728,16 +746,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
@@ -753,51 +771,128 @@
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2016</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
